--- a/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/EducationalAchievmentDataWithTwoEqualsStudentEmails.xlsx
+++ b/OnlineCoursesAnalyzerTests/Data/DataHandlerTestsData/EducationalAchievmentDataWithTwoEqualsStudentEmails.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="79">
   <si>
     <t>Student ID</t>
   </si>
@@ -189,9 +189,6 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>0.887012987013</t>
-  </si>
-  <si>
     <t>st000004@student.spbu.ru</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>0.94696969697</t>
-  </si>
-  <si>
     <t>st000003</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
   </si>
   <si>
     <t>verified_29.11.21_матмех</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,6 +683,9 @@
     <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -798,13 +801,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>38</v>
@@ -849,7 +852,7 @@
         <v>38</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>38</v>
@@ -863,11 +866,11 @@
       <c r="Y2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="13" t="s">
         <v>38</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>39</v>
@@ -899,10 +902,10 @@
         <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>66</v>
@@ -911,7 +914,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>38</v>
@@ -950,7 +953,7 @@
         <v>38</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>38</v>
@@ -964,11 +967,11 @@
       <c r="Y3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="10" t="s">
-        <v>38</v>
+      <c r="Z3" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="10" t="s">
         <v>44</v>
@@ -997,13 +1000,13 @@
         <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>69</v>
@@ -1065,11 +1068,11 @@
       <c r="Y4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>38</v>
+      <c r="Z4" s="13">
+        <v>1</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="6" t="s">
         <v>49</v>
@@ -1098,13 +1101,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>72</v>
@@ -1152,7 +1155,7 @@
         <v>46</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="V5" s="10" t="s">
         <v>48</v>
@@ -1166,11 +1169,11 @@
       <c r="Y5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="10" t="s">
-        <v>38</v>
+      <c r="Z5" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="10" t="s">
         <v>49</v>
@@ -1196,22 +1199,22 @@
         <v>2714100</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="13">
         <v>75</v>
@@ -1232,20 +1235,20 @@
         <v>46</v>
       </c>
       <c r="N6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="S6" s="6" t="s">
         <v>46</v>
       </c>
@@ -1253,7 +1256,7 @@
         <v>46</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>48</v>
@@ -1267,11 +1270,11 @@
       <c r="Y6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Z6" s="6" t="s">
-        <v>38</v>
+      <c r="Z6" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>49</v>
@@ -1436,7 +1439,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="10"/>
@@ -1468,15 +1471,19 @@
       <c r="AG11" s="11"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
       <c r="F15" s="6"/>
     </row>
   </sheetData>
